--- a/Golang cheat sheet.xlsx
+++ b/Golang cheat sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>System Program vs Application Program</t>
   </si>
@@ -98,12 +98,232 @@
   <si>
     <t>(2) variables and types</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Type Inference    :=    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>vs  Manual Type Declaration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Static Typing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: check for errors before the program is run</t>
+    </r>
+  </si>
+  <si>
+    <t>Data types</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>hourOfDay := time.Now().Hour()</t>
+  </si>
+  <si>
+    <t>Function Signature</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Zero Values</t>
+  </si>
+  <si>
+    <t>http://go.codeschool.com/go-zero-value</t>
+  </si>
+  <si>
+    <t>(3) For loop</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A loop wi th a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SINGLE CONDITION</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">for i:-0; i&lt;5; i++ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for loops with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>no components</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Infinite loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for listeners, responding to connections</t>
+    </r>
+  </si>
+  <si>
+    <t>Arrays</t>
+  </si>
+  <si>
+    <t>var arrayName [arraySize]type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Slice </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>is an empty array, it is flexible in size</t>
+    </r>
+  </si>
+  <si>
+    <t>append()</t>
+  </si>
+  <si>
+    <t>Slice Literals &amp; Looping With range</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">for i := </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> lang { .. }</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to iterate over slices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, an index is used and we go through the range of the slice</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>to read elements from a slice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, we must assign to t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>wo values</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and one of them must be ignored using a special character.</t>
+    </r>
+  </si>
+  <si>
+    <t>(4) Structs</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -122,6 +342,13 @@
       <u/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -149,10 +376,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -160,8 +388,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -823,6 +1053,1199 @@
         <a:xfrm>
           <a:off x="5987143" y="14532429"/>
           <a:ext cx="4542857" cy="5971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5973535</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>129732</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27214" y="21458465"/>
+          <a:ext cx="5946321" cy="3327410"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5932714</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>50901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="25159606"/>
+          <a:ext cx="5932714" cy="3303009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4081</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5959927</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>61456</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5991224" y="21485678"/>
+          <a:ext cx="5955846" cy="6497635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2735035</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>28024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12232822" y="21472072"/>
+          <a:ext cx="8463642" cy="3375381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5977617</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5793160</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>108858</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="27" name="Group 26"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5977617" y="29228143"/>
+          <a:ext cx="5802686" cy="3211286"/>
+          <a:chOff x="5977617" y="29228143"/>
+          <a:chExt cx="5802686" cy="3211286"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Picture 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5977617" y="29228143"/>
+            <a:ext cx="5802686" cy="3211286"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="26" name="Picture 25"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7878535" y="31677428"/>
+            <a:ext cx="421822" cy="235723"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4014106</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>135915</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="Group 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="29282570"/>
+          <a:ext cx="4014106" cy="4816774"/>
+          <a:chOff x="0" y="29282570"/>
+          <a:chExt cx="4014106" cy="4816774"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="24" name="Picture 23"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="29282570"/>
+            <a:ext cx="4014106" cy="3187280"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="28" name="Picture 27"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="95250" y="31867929"/>
+            <a:ext cx="2952750" cy="1388045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="29" name="Picture 28"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="108857" y="32548285"/>
+            <a:ext cx="3710611" cy="1551059"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4980215</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>128955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6027965" y="34875106"/>
+          <a:ext cx="4939393" cy="2809563"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5579517</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>54428</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="40" name="Group 39"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="34779857"/>
+          <a:ext cx="5579517" cy="4626428"/>
+          <a:chOff x="0" y="34779857"/>
+          <a:chExt cx="5579517" cy="4626428"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="38" name="Group 37"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="0" y="34779857"/>
+            <a:ext cx="5579517" cy="4626428"/>
+            <a:chOff x="0" y="34779857"/>
+            <a:chExt cx="5579517" cy="4626428"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="34" name="Group 33"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="0" y="34779857"/>
+              <a:ext cx="5579517" cy="3170464"/>
+              <a:chOff x="0" y="34779857"/>
+              <a:chExt cx="5579517" cy="3170464"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="31" name="Picture 30"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="0" y="34779857"/>
+                <a:ext cx="5579517" cy="3170464"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="33" name="Picture 32"/>
+              <xdr:cNvPicPr>
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="2136322" y="36118033"/>
+                <a:ext cx="3020785" cy="462003"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="37" name="Picture 36"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="37800642"/>
+              <a:ext cx="5132790" cy="1605643"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="39" name="Picture 38"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2462893" y="37977534"/>
+            <a:ext cx="2868708" cy="653143"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5939162</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>90476</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="45" name="Group 44"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11974286" y="34943143"/>
+          <a:ext cx="5939162" cy="3192904"/>
+          <a:chOff x="11974286" y="34943143"/>
+          <a:chExt cx="5939162" cy="3192904"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="43" name="Group 42"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="11974286" y="34943143"/>
+            <a:ext cx="5939162" cy="3192904"/>
+            <a:chOff x="11974286" y="34943143"/>
+            <a:chExt cx="5939162" cy="3192904"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="41" name="Picture 40"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11974286" y="34943143"/>
+              <a:ext cx="5823857" cy="3192904"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="42" name="Picture 41"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15825108" y="36712072"/>
+              <a:ext cx="2088340" cy="537440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="44" name="Picture 43"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14818179" y="36385500"/>
+            <a:ext cx="1900062" cy="361917"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4547759</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>54427</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Picture 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="39964177"/>
+          <a:ext cx="4547759" cy="1564821"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>40820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5320393</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>61231</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13607" y="41515391"/>
+          <a:ext cx="5306786" cy="1326697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>6312</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>163283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5738905</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="Picture 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5993455" y="40331569"/>
+          <a:ext cx="5732593" cy="2435680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>48264</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5850227</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="52" name="Group 51"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12022550" y="40209108"/>
+          <a:ext cx="5801963" cy="2966356"/>
+          <a:chOff x="12022550" y="40209108"/>
+          <a:chExt cx="5801963" cy="2966356"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="50" name="Picture 49"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12022550" y="40209108"/>
+            <a:ext cx="5801963" cy="2966356"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="51" name="Picture 50"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12382500" y="42236570"/>
+            <a:ext cx="1736915" cy="476251"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40821</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5265963</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>28627</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="Picture 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18002250" y="40222715"/>
+          <a:ext cx="5225142" cy="2913341"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>126546</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5286480</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24075117" y="40263536"/>
+          <a:ext cx="5159934" cy="2979964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>4721679</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>115225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Picture 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40822" y="43937463"/>
+          <a:ext cx="4680857" cy="3040762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4735286</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>127048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Picture 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5987143" y="43923857"/>
+          <a:ext cx="4735286" cy="3066191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5354714</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="Picture 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11974286" y="43978286"/>
+          <a:ext cx="5354714" cy="2939143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5650248</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="Picture 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="48005999"/>
+          <a:ext cx="5650248" cy="2939143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5923189</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>91297</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="Picture 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5923189" y="48006000"/>
+          <a:ext cx="6142394" cy="2816679"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>5964631</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Picture 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11974286" y="48005999"/>
+          <a:ext cx="5964631" cy="3347357"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1074965</xdr:colOff>
+      <xdr:row>306</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2980927</xdr:colOff>
+      <xdr:row>307</xdr:row>
+      <xdr:rowOff>148298</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="Picture 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13049251" y="50019858"/>
+          <a:ext cx="1905962" cy="257154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>40820</xdr:colOff>
+      <xdr:row>294</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>5796641</xdr:colOff>
+      <xdr:row>315</xdr:row>
+      <xdr:rowOff>49042</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="Picture 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18002249" y="48033214"/>
+          <a:ext cx="5755821" cy="3450828"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1121,10 +2544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E129"/>
+  <dimension ref="A1:E317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D275" sqref="D275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="89.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1175,15 +2598,121 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="2"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>16</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B213" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" s="2"/>
+    </row>
+    <row r="244" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C246" t="s">
+        <v>22</v>
+      </c>
+      <c r="D246" t="s">
+        <v>24</v>
+      </c>
+      <c r="E246" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C293" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C294" t="s">
+        <v>31</v>
+      </c>
+      <c r="D294" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A317" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B212" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
